--- a/Travis_County/Documentation/Travis_County_2020_bg_SVI.xlsx
+++ b/Travis_County/Documentation/Travis_County_2020_bg_SVI.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['PPUNIT' 'QEXTRCT' 'QEDLESHI' 'QHISPC' 'QMOHO' 'QESL' 'QNOHLTH']</t>
+          <t>['QESL' 'PPUNIT' 'QMOHO' 'QEDLESHI' 'QHISPC' 'QNOHLTH' 'QEXTRCT']</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['PERCAP' 'MDHSEVAL' 'QRICH']</t>
+          <t>['PERCAP' 'QRICH' 'MDHSEVAL']</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['QRENTER' 'QPOVTY' 'QNOAUTO']</t>
+          <t>['QRENTER' 'QNOAUTO' 'QPOVTY']</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['QAGEDEP' 'QFEMLBR' 'QFEMALE']</t>
+          <t>['QAGEDEP' 'QFEMALE' 'QFEMLBR']</t>
         </is>
       </c>
     </row>
@@ -605,176 +605,176 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>PPUNIT</t>
+          <t>QESL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5835172949299389</v>
+        <v>0.7463154738714127</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0368974618560987</v>
+        <v>0.1383746688021929</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1272499861788002</v>
+        <v>-0.06828868531064654</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.4204908311885951</v>
+        <v>0.2025402315337327</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1006093492731191</v>
+        <v>-0.04405009710752585</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1309775096692009</v>
+        <v>0.09086866093976122</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>QEXTRCT</t>
+          <t>PPUNIT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7662017855692459</v>
+        <v>0.5835173019418969</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1246192487565254</v>
+        <v>-0.03689747254769649</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05703177705108792</v>
+        <v>-0.1272499913564337</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1061640310797526</v>
+        <v>-0.4204908240952777</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1262460466354835</v>
+        <v>0.1006093523631547</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00427582786591847</v>
+        <v>0.130977512453249</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>QEDLESHI</t>
+          <t>QMOHO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8352779338690146</v>
+        <v>0.4515387097126257</v>
       </c>
       <c r="C4" t="n">
-        <v>0.144262393262891</v>
+        <v>0.1342118373807977</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002317829048798569</v>
+        <v>0.03533061792857509</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1530479497803337</v>
+        <v>-0.1630772623581569</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.02604026941700446</v>
+        <v>-0.01675659521983348</v>
       </c>
       <c r="G4" t="n">
-        <v>0.176546653873823</v>
+        <v>0.001862665364592792</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>QHISPC</t>
+          <t>QEDLESHI</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7423692378660858</v>
+        <v>0.8352779339073224</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3098526142549692</v>
+        <v>0.1442623953550782</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1486952811088596</v>
+        <v>0.002317829691818668</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09400582969138599</v>
+        <v>0.1530479582561485</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.04885413409794139</v>
+        <v>-0.02604027049597342</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2354827144227696</v>
+        <v>0.1765466381914305</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>QMOHO</t>
+          <t>QHISPC</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4515387054952162</v>
+        <v>0.7423692396666269</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1342118397568304</v>
+        <v>0.3098526168554369</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03533061764710917</v>
+        <v>-0.1486952812711276</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.1630772627049738</v>
+        <v>0.09400583957306605</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.01675659577920958</v>
+        <v>-0.04885413376749048</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001862667338223991</v>
+        <v>0.2354826922092088</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>QESL</t>
+          <t>QNOHLTH</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7463154859403165</v>
+        <v>0.6038940751127572</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1383746625468761</v>
+        <v>0.3577588845444675</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.06828868766558127</v>
+        <v>-0.07977624897329463</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2025402318718515</v>
+        <v>0.2571839833933484</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.04405009378129442</v>
+        <v>-0.09534315052672397</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0908686627161242</v>
+        <v>0.1820152857384868</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>QNOHLTH</t>
+          <t>QEXTRCT</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6038940727907627</v>
+        <v>0.7662017861373808</v>
       </c>
       <c r="C8" t="n">
-        <v>0.357758880607614</v>
+        <v>0.1246192445311004</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.07977624931987351</v>
+        <v>0.05703178003480995</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2571839772969969</v>
+        <v>0.1061640337901088</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.09534314998882992</v>
+        <v>-0.1262460497666379</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1820153058498246</v>
+        <v>0.00427583026953045</v>
       </c>
     </row>
     <row r="9">
@@ -784,122 +784,122 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4141283887582314</v>
+        <v>0.4141283943230038</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6768765558742511</v>
+        <v>0.6768765468547735</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2089607214225215</v>
+        <v>-0.208960726327434</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1891635407958451</v>
+        <v>0.189163545024027</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09876520805674581</v>
+        <v>0.09876521159871486</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1797756485982227</v>
+        <v>0.1797756325458044</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>MDHSEVAL</t>
+          <t>QRICH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3537576146631197</v>
+        <v>0.1786760063468116</v>
       </c>
       <c r="C10" t="n">
-        <v>0.728708390220101</v>
+        <v>0.8099499573541392</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.08538345382396095</v>
+        <v>-0.1171137254553127</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04214449875080993</v>
+        <v>0.3686627495693146</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04384742958267267</v>
+        <v>-0.02002121773364113</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1201376050090352</v>
+        <v>0.109511635490191</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>QRICH</t>
+          <t>MDHSEVAL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1786760056385634</v>
+        <v>0.353757620337989</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8099499518708236</v>
+        <v>0.728708382215542</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.117113724314272</v>
+        <v>-0.08538345655936434</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3686627534140922</v>
+        <v>-0.04214449505572827</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.02002121876428975</v>
+        <v>0.04384743220829919</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1095116492201594</v>
+        <v>0.1201375945681547</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>MEDAGE</t>
+          <t>QRENTER</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1933922631094309</v>
+        <v>-0.06964050153989358</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.2556005608613305</v>
+        <v>0.2243052317807107</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7735816084521477</v>
+        <v>-0.4250942622562807</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.2675924803215755</v>
+        <v>0.7486728906150069</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.05058705710507661</v>
+        <v>-0.08020597109228203</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.122609772815433</v>
+        <v>0.06481865033512572</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>QRENTER</t>
+          <t>MEDAGE</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.06964049744714584</v>
+        <v>-0.1933922661302453</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2243052258287797</v>
+        <v>-0.2556005570341998</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4250942625292016</v>
+        <v>0.7735816192592738</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7486728943102626</v>
+        <v>-0.2675924831286911</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0802059696225052</v>
+        <v>-0.05058706228423991</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06481866377961618</v>
+        <v>-0.1226097589316303</v>
       </c>
     </row>
     <row r="14">
@@ -909,22 +909,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03196500301446444</v>
+        <v>0.03196500328660701</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.06645709600629583</v>
+        <v>-0.06645709694710349</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6956263810843347</v>
+        <v>0.6956263850825187</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.0445726160146207</v>
+        <v>-0.04457261547133459</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6123584568756674</v>
+        <v>0.6123584634842314</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.04113477327578708</v>
+        <v>-0.04113476791561829</v>
       </c>
     </row>
     <row r="15">
@@ -934,122 +934,122 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02114278526832435</v>
+        <v>0.02114278701105845</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.03947992188810369</v>
+        <v>-0.03947992616860568</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7957449421787808</v>
+        <v>0.7957449187436122</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.08782706702749751</v>
+        <v>-0.08782706873952935</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06483514750256142</v>
+        <v>0.06483515366448697</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04245536407076091</v>
+        <v>0.04245536209771213</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>QPOVTY</t>
+          <t>QNOAUTO</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1957216581015123</v>
+        <v>0.05709370144763014</v>
       </c>
       <c r="C16" t="n">
-        <v>0.133097770664759</v>
+        <v>0.04107575786895225</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2320824170599603</v>
+        <v>0.01144308742084319</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5572080727705478</v>
+        <v>0.6493597865939288</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08212745600017905</v>
+        <v>0.0149432863733358</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1166838225975449</v>
+        <v>0.05784573758531825</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>QNOAUTO</t>
+          <t>QPOVTY</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.05709370152859854</v>
+        <v>0.1957216580403172</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04107575961319169</v>
+        <v>0.1330977692004899</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01144308749284147</v>
+        <v>-0.2320824202469326</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6493597771418048</v>
+        <v>0.5572080744446453</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01494328476044854</v>
+        <v>0.08212745736725391</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05784575449113852</v>
+        <v>0.1166838084313597</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>QFEMLBR</t>
+          <t>QFEMALE</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.2164852274206383</v>
+        <v>0.02896968068441856</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07008130974206056</v>
+        <v>0.001264420953605554</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.05054873684173777</v>
+        <v>0.1484947721477394</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.01544328300657617</v>
+        <v>0.04764862560814205</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6764703207566379</v>
+        <v>0.9303837596979473</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1327983277729766</v>
+        <v>-0.0001998259267016299</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>QFEMALE</t>
+          <t>QFEMLBR</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02896968333712019</v>
+        <v>-0.2164852227571602</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001264420837816878</v>
+        <v>0.07008131099298208</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1484947706432399</v>
+        <v>-0.05054873711277632</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04764862769674715</v>
+        <v>-0.01544327837111355</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9303837761989406</v>
+        <v>0.6764703176186838</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0001998327732680688</v>
+        <v>0.1327983158183232</v>
       </c>
     </row>
     <row r="20">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1389414109551611</v>
+        <v>0.1389414203490118</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2227513239403871</v>
+        <v>0.2227513400325371</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.103161405565803</v>
+        <v>-0.1031614102698809</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3534990047136173</v>
+        <v>0.3534990123545979</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.02460918887574399</v>
+        <v>-0.02460918471860097</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4969878962278445</v>
+        <v>0.4969878288289207</v>
       </c>
     </row>
     <row r="21">
@@ -1084,22 +1084,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3059368246777017</v>
+        <v>0.3059368164415499</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1540730327983404</v>
+        <v>0.1540730302632215</v>
       </c>
       <c r="D21" t="n">
-        <v>0.02452183234323489</v>
+        <v>0.02452183562253974</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02957442053266738</v>
+        <v>0.02957443205099398</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1777865171530606</v>
+        <v>0.1777865111549735</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9169223039225743</v>
+        <v>0.9169224125282442</v>
       </c>
     </row>
   </sheetData>
@@ -1195,43 +1195,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.095984291526479</v>
+        <v>4.095984283209816</v>
       </c>
       <c r="C2" t="n">
-        <v>2.853394889113138</v>
+        <v>2.853394873491776</v>
       </c>
       <c r="D2" t="n">
-        <v>2.240850445377359</v>
+        <v>2.240850447181389</v>
       </c>
       <c r="E2" t="n">
-        <v>1.887013629899118</v>
+        <v>1.887013627171163</v>
       </c>
       <c r="F2" t="n">
-        <v>1.826686531162891</v>
+        <v>1.826686531450328</v>
       </c>
       <c r="G2" t="n">
-        <v>1.571823084437989</v>
+        <v>1.571823091120927</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9800951831282944</v>
+        <v>0.9800951980275844</v>
       </c>
       <c r="I2" t="n">
-        <v>3.876385823317477</v>
+        <v>3.876385829778928</v>
       </c>
       <c r="J2" t="n">
-        <v>2.163351722707464</v>
+        <v>2.1633517207822</v>
       </c>
       <c r="K2" t="n">
-        <v>2.104589602759185</v>
+        <v>2.104589594732921</v>
       </c>
       <c r="L2" t="n">
-        <v>2.029886864494984</v>
+        <v>2.029886881000504</v>
       </c>
       <c r="M2" t="n">
-        <v>1.803101119114653</v>
+        <v>1.803101094454233</v>
       </c>
       <c r="N2" t="n">
-        <v>1.348998809830796</v>
+        <v>1.348998893620019</v>
       </c>
     </row>
     <row r="3">
@@ -1241,43 +1241,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1517031219083881</v>
+        <v>0.1517031216003636</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1056812921893755</v>
+        <v>0.1056812916108065</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08299446093990216</v>
+        <v>0.0829944610067181</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06988939369996733</v>
+        <v>0.06988939359893195</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06765505670973672</v>
+        <v>0.06765505672038251</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05821566979399958</v>
+        <v>0.05821567004151582</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03629982159734423</v>
+        <v>0.03629982214916979</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1938192911658738</v>
+        <v>0.1938192914889464</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1081675861353732</v>
+        <v>0.10816758603911</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1052294801379593</v>
+        <v>0.105229479736646</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1014943432247492</v>
+        <v>0.1014943440500252</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09015505595573266</v>
+        <v>0.09015505472271164</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06744994049153978</v>
+        <v>0.06744994468100093</v>
       </c>
     </row>
     <row r="4">
@@ -1287,43 +1287,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1517031219083881</v>
+        <v>0.1517031216003636</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2573844140977636</v>
+        <v>0.2573844132111701</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3403788750376657</v>
+        <v>0.3403788742178881</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4102682687376331</v>
+        <v>0.4102682678168201</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4779233254473698</v>
+        <v>0.4779233245372027</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5361389952413693</v>
+        <v>0.5361389945787185</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5724388168387136</v>
+        <v>0.5724388167278883</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1938192911658738</v>
+        <v>0.1938192914889464</v>
       </c>
       <c r="J4" t="n">
-        <v>0.301986877301247</v>
+        <v>0.3019868775280564</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4072163574392063</v>
+        <v>0.4072163572647025</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5087107006639554</v>
+        <v>0.5087107013147276</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5988657566196881</v>
+        <v>0.5988657560374393</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6663156971112278</v>
+        <v>0.6663157007184403</v>
       </c>
     </row>
     <row r="5">
@@ -1333,43 +1333,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2650119409200214</v>
+        <v>0.2650119404332366</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1846158734884527</v>
+        <v>0.1846158725134858</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1449839851850684</v>
+        <v>0.1449839853298592</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1220905914206354</v>
+        <v>0.1220905912677725</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1181874022508833</v>
+        <v>0.1181874022923618</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1016976279063235</v>
+        <v>0.1016976283584014</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06341257882861535</v>
+        <v>0.06341257980488262</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2908820728765147</v>
+        <v>0.2908820717866396</v>
       </c>
       <c r="J5" t="n">
-        <v>0.162336842137034</v>
+        <v>0.1623368411137253</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1579273617508569</v>
+        <v>0.1579273602936035</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1523217052588914</v>
+        <v>0.1523217056728382</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1353038152134109</v>
+        <v>0.1353038126304152</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1012282027632922</v>
+        <v>0.1012282085027781</v>
       </c>
     </row>
   </sheetData>
@@ -1430,22 +1430,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.876385823317477</v>
+        <v>3.876385829778928</v>
       </c>
       <c r="C2" t="n">
-        <v>2.163351722707464</v>
+        <v>2.1633517207822</v>
       </c>
       <c r="D2" t="n">
-        <v>2.104589602759185</v>
+        <v>2.104589594732921</v>
       </c>
       <c r="E2" t="n">
-        <v>2.029886864494984</v>
+        <v>2.029886881000504</v>
       </c>
       <c r="F2" t="n">
-        <v>1.803101119114653</v>
+        <v>1.803101094454233</v>
       </c>
       <c r="G2" t="n">
-        <v>1.348998809830796</v>
+        <v>1.348998893620019</v>
       </c>
     </row>
     <row r="3">
@@ -1455,22 +1455,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1938192911658738</v>
+        <v>0.1938192914889464</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1081675861353732</v>
+        <v>0.10816758603911</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1052294801379593</v>
+        <v>0.105229479736646</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1014943432247492</v>
+        <v>0.1014943440500252</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09015505595573266</v>
+        <v>0.09015505472271164</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06744994049153978</v>
+        <v>0.06744994468100093</v>
       </c>
     </row>
     <row r="4">
@@ -1480,22 +1480,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1938192911658738</v>
+        <v>0.1938192914889464</v>
       </c>
       <c r="C4" t="n">
-        <v>0.301986877301247</v>
+        <v>0.3019868775280564</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4072163574392063</v>
+        <v>0.4072163572647025</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5087107006639554</v>
+        <v>0.5087107013147276</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5988657566196881</v>
+        <v>0.5988657560374393</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6663156971112278</v>
+        <v>0.6663157007184403</v>
       </c>
     </row>
     <row r="5">
@@ -1505,22 +1505,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2908820728765147</v>
+        <v>0.2908820717866396</v>
       </c>
       <c r="C5" t="n">
-        <v>0.162336842137034</v>
+        <v>0.1623368411137253</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1579273617508569</v>
+        <v>0.1579273602936035</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1523217052588914</v>
+        <v>0.1523217056728382</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1353038152134109</v>
+        <v>0.1353038126304152</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1012282027632922</v>
+        <v>0.1012282085027781</v>
       </c>
     </row>
   </sheetData>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['PPUNIT', 'QEXTRCT', 'QEDLESHI', 'QHISPC', 'QMOHO', 'QESL', 'QNOHLTH', 'PERCAP', 'MDHSEVAL', 'QRICH', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QRENTER', 'QPOVTY', 'QNOAUTO', 'QFEMLBR', 'QFEMALE', 'QFAM', 'QFHH']]</t>
+          <t>[['QESL', 'PPUNIT', 'QMOHO', 'QEDLESHI', 'QHISPC', 'QNOHLTH', 'QEXTRCT', 'PERCAP', 'QRICH', 'MDHSEVAL', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QRENTER', 'QNOAUTO', 'QPOVTY', 'QFEMALE', 'QFEMLBR', 'QFAM', 'QFHH']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/Travis_County/Documentation/Travis_County_2020_bg_SVI.xlsx
+++ b/Travis_County/Documentation/Travis_County_2020_bg_SVI.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['QESL' 'PPUNIT' 'QMOHO' 'QEDLESHI' 'QHISPC' 'QNOHLTH' 'QEXTRCT']</t>
+          <t>['QEDLESHI' 'QNOHLTH' 'QHISPC' 'QMOHO' 'QEXTRCT' 'QESL' 'PPUNIT']</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['PERCAP' 'QRICH' 'MDHSEVAL']</t>
+          <t>['MDHSEVAL' 'QRICH' 'PERCAP']</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['QFAM' 'QFHH']</t>
+          <t>['QFHH' 'QFAM']</t>
         </is>
       </c>
     </row>
@@ -605,201 +605,201 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>QESL</t>
+          <t>QEDLESHI</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7463154738714127</v>
+        <v>0.8352779413021846</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1383746688021929</v>
+        <v>0.1442623943823071</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.06828868531064654</v>
+        <v>0.002317830515288181</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2025402315337327</v>
+        <v>0.1530479621731294</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04405009710752585</v>
+        <v>-0.02604026969164686</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09086866093976122</v>
+        <v>0.1765466292958042</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>PPUNIT</t>
+          <t>QNOHLTH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5835173019418969</v>
+        <v>0.6038940753240879</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.03689747254769649</v>
+        <v>0.3577588874682597</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1272499913564337</v>
+        <v>-0.07977624857814977</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4204908240952777</v>
+        <v>0.2571839869167801</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1006093523631547</v>
+        <v>-0.09534314976470985</v>
       </c>
       <c r="G3" t="n">
-        <v>0.130977512453249</v>
+        <v>0.1820152747179742</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>QMOHO</t>
+          <t>QHISPC</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4515387097126257</v>
+        <v>0.7423692383838313</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1342118373807977</v>
+        <v>0.3098526212175621</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03533061792857509</v>
+        <v>-0.1486952810890605</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1630772623581569</v>
+        <v>0.09400584354819715</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01675659521983348</v>
+        <v>-0.04885413317927804</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001862665364592792</v>
+        <v>0.2354826809824317</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>QEDLESHI</t>
+          <t>QMOHO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8352779339073224</v>
+        <v>0.4515387076671893</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1442623953550782</v>
+        <v>0.1342118385222944</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002317829691818668</v>
+        <v>0.03533061733661317</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1530479582561485</v>
+        <v>-0.1630772624864648</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.02604027049597342</v>
+        <v>-0.01675659503726386</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1765466381914305</v>
+        <v>0.001862667272644173</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>QHISPC</t>
+          <t>QEXTRCT</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7423692396666269</v>
+        <v>0.7662017851748567</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3098526168554369</v>
+        <v>0.1246192448661991</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1486952812711276</v>
+        <v>0.05703178028083238</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09400583957306605</v>
+        <v>0.1061640315804192</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.04885413376749048</v>
+        <v>-0.1262460497183827</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2354826922092088</v>
+        <v>0.004275831697763141</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>QNOHLTH</t>
+          <t>QESL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6038940751127572</v>
+        <v>0.7463154814398909</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3577588845444675</v>
+        <v>0.1383746656614573</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.07977624897329463</v>
+        <v>-0.06828868516766722</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2571839833933484</v>
+        <v>0.2025402351657285</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.09534315052672397</v>
+        <v>-0.04405009611101696</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1820152857384868</v>
+        <v>0.09086865387020322</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>QEXTRCT</t>
+          <t>PPUNIT</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7662017861373808</v>
+        <v>0.5835173010714985</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1246192445311004</v>
+        <v>-0.03689746947965942</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05703178003480995</v>
+        <v>-0.1272499915507937</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1061640337901088</v>
+        <v>-0.4204908233498316</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1262460497666379</v>
+        <v>0.100609350353381</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00427583026953045</v>
+        <v>0.1309775181029532</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>PERCAP</t>
+          <t>MDHSEVAL</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4141283943230038</v>
+        <v>0.3537576187259346</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6768765468547735</v>
+        <v>0.7287083943926459</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.208960726327434</v>
+        <v>-0.08538345516392723</v>
       </c>
       <c r="E9" t="n">
-        <v>0.189163545024027</v>
+        <v>-0.04214449541645576</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09876521159871486</v>
+        <v>0.04384743250125637</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1797756325458044</v>
+        <v>0.1201375869102959</v>
       </c>
     </row>
     <row r="10">
@@ -809,97 +809,97 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1786760063468116</v>
+        <v>0.1786760065743981</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8099499573541392</v>
+        <v>0.8099499534415043</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1171137254553127</v>
+        <v>-0.1171137243969374</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3686627495693146</v>
+        <v>0.3686627546030478</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.02002121773364113</v>
+        <v>-0.02002121703087583</v>
       </c>
       <c r="G10" t="n">
-        <v>0.109511635490191</v>
+        <v>0.1095116274106864</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>MDHSEVAL</t>
+          <t>PERCAP</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.353757620337989</v>
+        <v>0.4141283935075643</v>
       </c>
       <c r="C11" t="n">
-        <v>0.728708382215542</v>
+        <v>0.6768765444148984</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.08538345655936434</v>
+        <v>-0.2089607237156321</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04214449505572827</v>
+        <v>0.1891635514779181</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04384743220829919</v>
+        <v>0.09876520976062461</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1201375945681547</v>
+        <v>0.1797756260037897</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>QRENTER</t>
+          <t>MEDAGE</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.06964050153989358</v>
+        <v>-0.1933922656624758</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2243052317807107</v>
+        <v>-0.255600558493191</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.4250942622562807</v>
+        <v>0.7735816186653004</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7486728906150069</v>
+        <v>-0.2675924877410682</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.08020597109228203</v>
+        <v>-0.05058706169695008</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06481865033512572</v>
+        <v>-0.1226097547079815</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>MEDAGE</t>
+          <t>QRENTER</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.1933922661302453</v>
+        <v>-0.06964050059013441</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2556005570341998</v>
+        <v>0.2243052306045802</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7735816192592738</v>
+        <v>-0.4250942583977625</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2675924831286911</v>
+        <v>0.7486728886867542</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.05058706228423991</v>
+        <v>-0.0802059708237484</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1226097589316303</v>
+        <v>0.06481864159954638</v>
       </c>
     </row>
     <row r="14">
@@ -909,22 +909,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03196500328660701</v>
+        <v>0.03196500277970304</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.06645709694710349</v>
+        <v>-0.06645709847725084</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6956263850825187</v>
+        <v>0.6956263838648032</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04457261547133459</v>
+        <v>-0.04457261952655693</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6123584634842314</v>
+        <v>0.6123584605390828</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.04113476791561829</v>
+        <v>-0.04113476366757669</v>
       </c>
     </row>
     <row r="15">
@@ -934,22 +934,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02114278701105845</v>
+        <v>0.02114278621623058</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.03947992616860568</v>
+        <v>-0.03947992445998286</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7957449187436122</v>
+        <v>0.7957449271967413</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.08782706873952935</v>
+        <v>-0.08782706845442959</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06483515366448697</v>
+        <v>0.06483515057396558</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04245536209771213</v>
+        <v>0.04245536425018621</v>
       </c>
     </row>
     <row r="16">
@@ -959,22 +959,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05709370144763014</v>
+        <v>0.05709370071849273</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04107575786895225</v>
+        <v>0.04107575804888556</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01144308742084319</v>
+        <v>0.01144308921841944</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6493597865939288</v>
+        <v>0.6493597858327629</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0149432863733358</v>
+        <v>0.01494328579930804</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05784573758531825</v>
+        <v>0.05784572937783707</v>
       </c>
     </row>
     <row r="17">
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1957216580403172</v>
+        <v>0.1957216581604825</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1330977692004899</v>
+        <v>0.1330977669554854</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2320824202469326</v>
+        <v>-0.2320824179330719</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5572080744446453</v>
+        <v>0.5572080829712123</v>
       </c>
       <c r="F17" t="n">
-        <v>0.08212745736725391</v>
+        <v>0.08212745720751051</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1166838084313597</v>
+        <v>0.116683801909843</v>
       </c>
     </row>
     <row r="18">
@@ -1009,22 +1009,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02896968068441856</v>
+        <v>0.02896968191961753</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001264420953605554</v>
+        <v>0.001264419517589502</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1484947721477394</v>
+        <v>0.1484947731471399</v>
       </c>
       <c r="E18" t="n">
-        <v>0.04764862560814205</v>
+        <v>0.04764862502708029</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9303837596979473</v>
+        <v>0.930383764071271</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0001998259267016299</v>
+        <v>-0.0001998256002410657</v>
       </c>
     </row>
     <row r="19">
@@ -1034,72 +1034,72 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.2164852227571602</v>
+        <v>-0.2164852229977366</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07008131099298208</v>
+        <v>0.07008131298509362</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.05054873711277632</v>
+        <v>-0.05054873926922934</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.01544327837111355</v>
+        <v>-0.01544327644197511</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6764703176186838</v>
+        <v>0.6764703257508498</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1327983158183232</v>
+        <v>0.1327983127188458</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>QFAM</t>
+          <t>QFHH</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1389414203490118</v>
+        <v>0.3059368107378084</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2227513400325371</v>
+        <v>0.1540730296038913</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1031614102698809</v>
+        <v>0.0245218389611409</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3534990123545979</v>
+        <v>0.02957443848638396</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.02460918471860097</v>
+        <v>0.1777865058278988</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4969878288289207</v>
+        <v>0.9169224731300243</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>QFHH</t>
+          <t>QFAM</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3059368164415499</v>
+        <v>0.1389414246534955</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1540730302632215</v>
+        <v>0.2227513460093403</v>
       </c>
       <c r="D21" t="n">
-        <v>0.02452183562253974</v>
+        <v>-0.1031614115423277</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02957443205099398</v>
+        <v>0.3534990205042562</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1777865111549735</v>
+        <v>-0.02460918295118234</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9169224125282442</v>
+        <v>0.4969877973445167</v>
       </c>
     </row>
   </sheetData>
@@ -1216,22 +1216,22 @@
         <v>0.9800951980275844</v>
       </c>
       <c r="I2" t="n">
-        <v>3.876385829778928</v>
+        <v>3.87638584317392</v>
       </c>
       <c r="J2" t="n">
-        <v>2.1633517207822</v>
+        <v>2.163351735136112</v>
       </c>
       <c r="K2" t="n">
-        <v>2.104589594732921</v>
+        <v>2.104589600525693</v>
       </c>
       <c r="L2" t="n">
-        <v>2.029886881000504</v>
+        <v>2.029886905793509</v>
       </c>
       <c r="M2" t="n">
-        <v>1.803101094454233</v>
+        <v>1.803101106338848</v>
       </c>
       <c r="N2" t="n">
-        <v>1.348998893620019</v>
+        <v>1.348998949642364</v>
       </c>
     </row>
     <row r="3">
@@ -1262,22 +1262,22 @@
         <v>0.03629982214916979</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1938192914889464</v>
+        <v>0.193819292158696</v>
       </c>
       <c r="J3" t="n">
-        <v>0.10816758603911</v>
+        <v>0.1081675867568056</v>
       </c>
       <c r="K3" t="n">
-        <v>0.105229479736646</v>
+        <v>0.1052294800262847</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1014943440500252</v>
+        <v>0.1014943452896755</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09015505472271164</v>
+        <v>0.09015505531694241</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06744994468100093</v>
+        <v>0.06744994748211822</v>
       </c>
     </row>
     <row r="4">
@@ -1308,22 +1308,22 @@
         <v>0.5724388167278883</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1938192914889464</v>
+        <v>0.193819292158696</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3019868775280564</v>
+        <v>0.3019868789155016</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4072163572647025</v>
+        <v>0.4072163589417862</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5087107013147276</v>
+        <v>0.5087107042314617</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5988657560374393</v>
+        <v>0.5988657595484042</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6663157007184403</v>
+        <v>0.6663157070305223</v>
       </c>
     </row>
     <row r="5">
@@ -1354,22 +1354,22 @@
         <v>0.06341257980488262</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2908820717866396</v>
+        <v>0.2908820700362353</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1623368411137253</v>
+        <v>0.1623368406530009</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1579273602936035</v>
+        <v>0.1579273592322271</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1523217056728382</v>
+        <v>0.1523217060903327</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1353038126304152</v>
+        <v>0.1353038122404829</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1012282085027781</v>
+        <v>0.1012282117477211</v>
       </c>
     </row>
   </sheetData>
@@ -1430,22 +1430,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.876385829778928</v>
+        <v>3.87638584317392</v>
       </c>
       <c r="C2" t="n">
-        <v>2.1633517207822</v>
+        <v>2.163351735136112</v>
       </c>
       <c r="D2" t="n">
-        <v>2.104589594732921</v>
+        <v>2.104589600525693</v>
       </c>
       <c r="E2" t="n">
-        <v>2.029886881000504</v>
+        <v>2.029886905793509</v>
       </c>
       <c r="F2" t="n">
-        <v>1.803101094454233</v>
+        <v>1.803101106338848</v>
       </c>
       <c r="G2" t="n">
-        <v>1.348998893620019</v>
+        <v>1.348998949642364</v>
       </c>
     </row>
     <row r="3">
@@ -1455,22 +1455,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1938192914889464</v>
+        <v>0.193819292158696</v>
       </c>
       <c r="C3" t="n">
-        <v>0.10816758603911</v>
+        <v>0.1081675867568056</v>
       </c>
       <c r="D3" t="n">
-        <v>0.105229479736646</v>
+        <v>0.1052294800262847</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1014943440500252</v>
+        <v>0.1014943452896755</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09015505472271164</v>
+        <v>0.09015505531694241</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06744994468100093</v>
+        <v>0.06744994748211822</v>
       </c>
     </row>
     <row r="4">
@@ -1480,22 +1480,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1938192914889464</v>
+        <v>0.193819292158696</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3019868775280564</v>
+        <v>0.3019868789155016</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4072163572647025</v>
+        <v>0.4072163589417862</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5087107013147276</v>
+        <v>0.5087107042314617</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5988657560374393</v>
+        <v>0.5988657595484042</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6663157007184403</v>
+        <v>0.6663157070305223</v>
       </c>
     </row>
     <row r="5">
@@ -1505,22 +1505,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2908820717866396</v>
+        <v>0.2908820700362353</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1623368411137253</v>
+        <v>0.1623368406530009</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1579273602936035</v>
+        <v>0.1579273592322271</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1523217056728382</v>
+        <v>0.1523217060903327</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1353038126304152</v>
+        <v>0.1353038122404829</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1012282085027781</v>
+        <v>0.1012282117477211</v>
       </c>
     </row>
   </sheetData>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['QESL', 'PPUNIT', 'QMOHO', 'QEDLESHI', 'QHISPC', 'QNOHLTH', 'QEXTRCT', 'PERCAP', 'QRICH', 'MDHSEVAL', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QRENTER', 'QNOAUTO', 'QPOVTY', 'QFEMALE', 'QFEMLBR', 'QFAM', 'QFHH']]</t>
+          <t>[['QEDLESHI', 'QNOHLTH', 'QHISPC', 'QMOHO', 'QEXTRCT', 'QESL', 'PPUNIT', 'MDHSEVAL', 'QRICH', 'PERCAP', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QRENTER', 'QNOAUTO', 'QPOVTY', 'QFEMALE', 'QFEMLBR', 'QFHH', 'QFAM']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/Travis_County/Documentation/Travis_County_2020_bg_SVI.xlsx
+++ b/Travis_County/Documentation/Travis_County_2020_bg_SVI.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['QEDLESHI' 'QNOHLTH' 'QHISPC' 'QMOHO' 'QEXTRCT' 'QESL' 'PPUNIT']</t>
+          <t>['QEXTRCT' 'QMOHO' 'QESL' 'QHISPC' 'QEDLESHI' 'PPUNIT' 'QNOHLTH']</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['MDHSEVAL' 'QRICH' 'PERCAP']</t>
+          <t>['QRICH' 'PERCAP' 'MDHSEVAL']</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['MEDAGE' 'QAGEDEP' 'QSSBEN']</t>
+          <t>['QAGEDEP' 'MEDAGE' 'QSSBEN']</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['QAGEDEP' 'QFEMALE' 'QFEMLBR']</t>
+          <t>['QAGEDEP' 'QFEMLBR' 'QFEMALE']</t>
         </is>
       </c>
     </row>
@@ -605,276 +605,276 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>QEDLESHI</t>
+          <t>QEXTRCT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8352779413021846</v>
+        <v>0.7662017872076399</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1442623943823071</v>
+        <v>0.1246192454280793</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002317830515288181</v>
+        <v>0.05703177946023106</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1530479621731294</v>
+        <v>0.1061640317557724</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.02604026969164686</v>
+        <v>-0.1262460487065369</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1765466292958042</v>
+        <v>0.004275829328621803</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>QNOHLTH</t>
+          <t>QMOHO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6038940753240879</v>
+        <v>0.4515387057450205</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3577588874682597</v>
+        <v>0.1342118383062358</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.07977624857814977</v>
+        <v>0.03533061706842234</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2571839869167801</v>
+        <v>-0.1630772611730658</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.09534314976470985</v>
+        <v>-0.01675659515438632</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1820152747179742</v>
+        <v>0.001862667846193435</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>QHISPC</t>
+          <t>QESL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7423692383838313</v>
+        <v>0.7463154807774712</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3098526212175621</v>
+        <v>0.1383746659566736</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1486952810890605</v>
+        <v>-0.06828868611331276</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09400584354819715</v>
+        <v>0.2025402326886757</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04885413317927804</v>
+        <v>-0.0440500951558544</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2354826809824317</v>
+        <v>0.09086865729578704</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>QMOHO</t>
+          <t>QHISPC</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4515387076671893</v>
+        <v>0.7423692411176009</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1342118385222944</v>
+        <v>0.3098526185856265</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03533061733661317</v>
+        <v>-0.14869528158947</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1630772624864648</v>
+        <v>0.09400583920772702</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.01675659503726386</v>
+        <v>-0.04885413337778412</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001862667272644173</v>
+        <v>0.2354826915134233</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>QEXTRCT</t>
+          <t>QEDLESHI</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7662017851748567</v>
+        <v>0.835277940995633</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1246192448661991</v>
+        <v>0.1442623932411957</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05703178028083238</v>
+        <v>0.002317829985271983</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1061640315804192</v>
+        <v>0.1530479583262567</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1262460497183827</v>
+        <v>-0.02604026930732095</v>
       </c>
       <c r="G6" t="n">
-        <v>0.004275831697763141</v>
+        <v>0.1765466364949183</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>QESL</t>
+          <t>PPUNIT</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7463154814398909</v>
+        <v>0.5835172974385709</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1383746656614573</v>
+        <v>-0.03689746289890063</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.06828868516766722</v>
+        <v>-0.1272499891103111</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2025402351657285</v>
+        <v>-0.4204908261492347</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.04405009611101696</v>
+        <v>0.1006093493267103</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09086865387020322</v>
+        <v>0.1309775141776323</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>PPUNIT</t>
+          <t>QNOHLTH</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5835173010714985</v>
+        <v>0.6038940737830031</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.03689746947965942</v>
+        <v>0.3577588836664262</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1272499915507937</v>
+        <v>-0.07977624915877934</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.4204908233498316</v>
+        <v>0.2571839839282107</v>
       </c>
       <c r="F8" t="n">
-        <v>0.100609350353381</v>
+        <v>-0.09534314929099239</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1309775181029532</v>
+        <v>0.1820152844613006</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>MDHSEVAL</t>
+          <t>QRICH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3537576187259346</v>
+        <v>0.1786760057396259</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7287083943926459</v>
+        <v>0.8099499507036548</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.08538345516392723</v>
+        <v>-0.11711372325679</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.04214449541645576</v>
+        <v>0.368662757418611</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04384743250125637</v>
+        <v>-0.02002121838050307</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1201375869102959</v>
+        <v>0.1095116346276093</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>QRICH</t>
+          <t>PERCAP</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1786760065743981</v>
+        <v>0.4141283906093469</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8099499534415043</v>
+        <v>0.6768765560650708</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1171137243969374</v>
+        <v>-0.2089607222700036</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3686627546030478</v>
+        <v>0.1891635479774894</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.02002121703087583</v>
+        <v>0.09876520938485223</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1095116274106864</v>
+        <v>0.1797756318032703</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>PERCAP</t>
+          <t>MDHSEVAL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4141283935075643</v>
+        <v>0.3537576154528908</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6768765444148984</v>
+        <v>0.7287084011579007</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2089607237156321</v>
+        <v>-0.08538345335431308</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1891635514779181</v>
+        <v>-0.04214449815258696</v>
       </c>
       <c r="F11" t="n">
-        <v>0.09876520976062461</v>
+        <v>0.04384743061208778</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1797756260037897</v>
+        <v>0.1201375913882453</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>MEDAGE</t>
+          <t>QAGEDEP</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1933922656624758</v>
+        <v>0.03196500340378081</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.255600558493191</v>
+        <v>-0.06645709741022643</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7735816186653004</v>
+        <v>0.6956263865925336</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.2675924877410682</v>
+        <v>-0.04457261749977444</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.05058706169695008</v>
+        <v>0.6123584626070012</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1226097547079815</v>
+        <v>-0.04113476760492205</v>
       </c>
     </row>
     <row r="13">
@@ -884,47 +884,47 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.06964050059013441</v>
+        <v>-0.06964049953173979</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2243052306045802</v>
+        <v>0.2243052263311398</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4250942583977625</v>
+        <v>-0.4250942600076245</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7486728886867542</v>
+        <v>0.7486728956473566</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0802059708237484</v>
+        <v>-0.08020597001281483</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06481864159954638</v>
+        <v>0.06481864854065772</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>QAGEDEP</t>
+          <t>MEDAGE</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03196500277970304</v>
+        <v>-0.1933922649374947</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.06645709847725084</v>
+        <v>-0.255600559253691</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6956263838648032</v>
+        <v>0.773581617477663</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04457261952655693</v>
+        <v>-0.2675924857923357</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6123584605390828</v>
+        <v>-0.05058706149342817</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.04113476366757669</v>
+        <v>-0.1226097599073551</v>
       </c>
     </row>
     <row r="15">
@@ -934,22 +934,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02114278621623058</v>
+        <v>0.02114278564884536</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.03947992445998286</v>
+        <v>-0.03947992304733914</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7957449271967413</v>
+        <v>0.7957449321843202</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.08782706845442959</v>
+        <v>-0.08782706832591999</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06483515057396558</v>
+        <v>0.06483514891930618</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04245536425018621</v>
+        <v>0.04245536416394331</v>
       </c>
     </row>
     <row r="16">
@@ -959,22 +959,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05709370071849273</v>
+        <v>0.05709370143238238</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04107575804888556</v>
+        <v>0.04107575801101934</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01144308921841944</v>
+        <v>0.01144308936803343</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6493597858327629</v>
+        <v>0.6493597835740099</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01494328579930804</v>
+        <v>0.01494328553999053</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05784572937783707</v>
+        <v>0.05784573716820147</v>
       </c>
     </row>
     <row r="17">
@@ -984,72 +984,72 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1957216581604825</v>
+        <v>0.1957216577902933</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1330977669554854</v>
+        <v>0.1330977694032092</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2320824179330719</v>
+        <v>-0.2320824168709502</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5572080829712123</v>
+        <v>0.5572080780311643</v>
       </c>
       <c r="F17" t="n">
-        <v>0.08212745720751051</v>
+        <v>0.08212745642362895</v>
       </c>
       <c r="G17" t="n">
-        <v>0.116683801909843</v>
+        <v>0.1166838083140116</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>QFEMALE</t>
+          <t>QFEMLBR</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02896968191961753</v>
+        <v>-0.2164852247003474</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001264419517589502</v>
+        <v>0.07008131208836509</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1484947731471399</v>
+        <v>-0.05054873831355557</v>
       </c>
       <c r="E18" t="n">
-        <v>0.04764862502708029</v>
+        <v>-0.01544327866450019</v>
       </c>
       <c r="F18" t="n">
-        <v>0.930383764071271</v>
+        <v>0.6764703221063801</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0001998256002410657</v>
+        <v>0.13279831781132</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>QFEMLBR</t>
+          <t>QFEMALE</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.2164852229977366</v>
+        <v>0.02896968261562555</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07008131298509362</v>
+        <v>0.001264419460793409</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.05054873926922934</v>
+        <v>0.1484947708258256</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.01544327644197511</v>
+        <v>0.04764862546510356</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6764703257508498</v>
+        <v>0.9303837721033712</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1327983127188458</v>
+        <v>-0.0001998282843647516</v>
       </c>
     </row>
     <row r="20">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3059368107378084</v>
+        <v>0.3059368149044416</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1540730296038913</v>
+        <v>0.1540730305838567</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0245218389611409</v>
+        <v>0.02452183686754002</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02957443848638396</v>
+        <v>0.02957443198154009</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1777865058278988</v>
+        <v>0.1777865093132783</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9169224731300243</v>
+        <v>0.9169224231249294</v>
       </c>
     </row>
     <row r="21">
@@ -1084,22 +1084,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1389414246534955</v>
+        <v>0.1389414206732875</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2227513460093403</v>
+        <v>0.2227513374345099</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1031614115423277</v>
+        <v>-0.1031614094357772</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3534990205042562</v>
+        <v>0.3534990165047647</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.02460918295118234</v>
+        <v>-0.02460918477747409</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4969877973445167</v>
+        <v>0.4969878297920926</v>
       </c>
     </row>
   </sheetData>
@@ -1216,22 +1216,22 @@
         <v>0.9800951980275844</v>
       </c>
       <c r="I2" t="n">
-        <v>3.87638584317392</v>
+        <v>3.876385837741227</v>
       </c>
       <c r="J2" t="n">
-        <v>2.163351735136112</v>
+        <v>2.163351746552688</v>
       </c>
       <c r="K2" t="n">
-        <v>2.104589600525693</v>
+        <v>2.104589608430914</v>
       </c>
       <c r="L2" t="n">
-        <v>2.029886905793509</v>
+        <v>2.029886901840213</v>
       </c>
       <c r="M2" t="n">
-        <v>1.803101106338848</v>
+        <v>1.803101118894937</v>
       </c>
       <c r="N2" t="n">
-        <v>1.348998949642364</v>
+        <v>1.348998911800272</v>
       </c>
     </row>
     <row r="3">
@@ -1262,22 +1262,22 @@
         <v>0.03629982214916979</v>
       </c>
       <c r="I3" t="n">
-        <v>0.193819292158696</v>
+        <v>0.1938192918870613</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1081675867568056</v>
+        <v>0.1081675873276344</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1052294800262847</v>
+        <v>0.1052294804215457</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1014943452896755</v>
+        <v>0.1014943450920106</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09015505531694241</v>
+        <v>0.09015505594474683</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06744994748211822</v>
+        <v>0.06744994559001359</v>
       </c>
     </row>
     <row r="4">
@@ -1308,22 +1308,22 @@
         <v>0.5724388167278883</v>
       </c>
       <c r="I4" t="n">
-        <v>0.193819292158696</v>
+        <v>0.1938192918870613</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3019868789155016</v>
+        <v>0.3019868792146957</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4072163589417862</v>
+        <v>0.4072163596362415</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5087107042314617</v>
+        <v>0.5087107047282521</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5988657595484042</v>
+        <v>0.5988657606729989</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6663157070305223</v>
+        <v>0.6663157062630125</v>
       </c>
     </row>
     <row r="5">
@@ -1354,22 +1354,22 @@
         <v>0.06341257980488262</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2908820700362353</v>
+        <v>0.2908820699636273</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1623368406530009</v>
+        <v>0.1623368416966863</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1579273592322271</v>
+        <v>0.1579273600073429</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1523217060903327</v>
+        <v>0.1523217059691343</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1353038122404829</v>
+        <v>0.1353038133385381</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1012282117477211</v>
+        <v>0.1012282090246711</v>
       </c>
     </row>
   </sheetData>
@@ -1430,22 +1430,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.87638584317392</v>
+        <v>3.876385837741227</v>
       </c>
       <c r="C2" t="n">
-        <v>2.163351735136112</v>
+        <v>2.163351746552688</v>
       </c>
       <c r="D2" t="n">
-        <v>2.104589600525693</v>
+        <v>2.104589608430914</v>
       </c>
       <c r="E2" t="n">
-        <v>2.029886905793509</v>
+        <v>2.029886901840213</v>
       </c>
       <c r="F2" t="n">
-        <v>1.803101106338848</v>
+        <v>1.803101118894937</v>
       </c>
       <c r="G2" t="n">
-        <v>1.348998949642364</v>
+        <v>1.348998911800272</v>
       </c>
     </row>
     <row r="3">
@@ -1455,22 +1455,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.193819292158696</v>
+        <v>0.1938192918870613</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1081675867568056</v>
+        <v>0.1081675873276344</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1052294800262847</v>
+        <v>0.1052294804215457</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1014943452896755</v>
+        <v>0.1014943450920106</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09015505531694241</v>
+        <v>0.09015505594474683</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06744994748211822</v>
+        <v>0.06744994559001359</v>
       </c>
     </row>
     <row r="4">
@@ -1480,22 +1480,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.193819292158696</v>
+        <v>0.1938192918870613</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3019868789155016</v>
+        <v>0.3019868792146957</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4072163589417862</v>
+        <v>0.4072163596362415</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5087107042314617</v>
+        <v>0.5087107047282521</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5988657595484042</v>
+        <v>0.5988657606729989</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6663157070305223</v>
+        <v>0.6663157062630125</v>
       </c>
     </row>
     <row r="5">
@@ -1505,22 +1505,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2908820700362353</v>
+        <v>0.2908820699636273</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1623368406530009</v>
+        <v>0.1623368416966863</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1579273592322271</v>
+        <v>0.1579273600073429</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1523217060903327</v>
+        <v>0.1523217059691343</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1353038122404829</v>
+        <v>0.1353038133385381</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1012282117477211</v>
+        <v>0.1012282090246711</v>
       </c>
     </row>
   </sheetData>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['QEDLESHI', 'QNOHLTH', 'QHISPC', 'QMOHO', 'QEXTRCT', 'QESL', 'PPUNIT', 'MDHSEVAL', 'QRICH', 'PERCAP', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QRENTER', 'QNOAUTO', 'QPOVTY', 'QFEMALE', 'QFEMLBR', 'QFHH', 'QFAM']]</t>
+          <t>[['QEXTRCT', 'QMOHO', 'QESL', 'QHISPC', 'QEDLESHI', 'PPUNIT', 'QNOHLTH', 'QRICH', 'PERCAP', 'MDHSEVAL', 'QAGEDEP', 'MEDAGE', 'QSSBEN', 'QRENTER', 'QNOAUTO', 'QPOVTY', 'QFEMLBR', 'QFEMALE', 'QFHH', 'QFAM']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
